--- a/input/transition_times.xlsx
+++ b/input/transition_times.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlahernandez/Desktop/STEM/supply_chain/dp-scheduling-wsetup/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA03373-107C-1544-BC57-4C595678B85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC4B415-92E9-5E48-B3F1-01D76F320EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="3120" windowWidth="28040" windowHeight="17440" xr2:uid="{7AF1CA2D-A986-AE48-8C82-95548A4C8927}"/>
+    <workbookView xWindow="14100" yWindow="3020" windowWidth="28040" windowHeight="17440" xr2:uid="{7AF1CA2D-A986-AE48-8C82-95548A4C8927}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,13 +38,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
-    <t>product_1</t>
-  </si>
-  <si>
-    <t>product_2</t>
-  </si>
-  <si>
-    <t>machine_Id</t>
+    <t>trans_time_days</t>
+  </si>
+  <si>
+    <t>machine_1</t>
+  </si>
+  <si>
+    <t>machine_id</t>
   </si>
   <si>
     <t>from</t>
@@ -53,10 +53,10 @@
     <t>to</t>
   </si>
   <si>
-    <t>trans_time_days</t>
-  </si>
-  <si>
-    <t>machine_1</t>
+    <t>machine_1_state_1</t>
+  </si>
+  <si>
+    <t>machine_1_state_2</t>
   </si>
 </sst>
 </file>
@@ -437,11 +437,12 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -456,18 +457,18 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -475,13 +476,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>

--- a/input/transition_times.xlsx
+++ b/input/transition_times.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlahernandez/Desktop/STEM/supply_chain/dp-scheduling-wsetup/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC4B415-92E9-5E48-B3F1-01D76F320EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E70B72A-602C-4E47-8EB1-43B7095138FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14100" yWindow="3020" windowWidth="28040" windowHeight="17440" xr2:uid="{7AF1CA2D-A986-AE48-8C82-95548A4C8927}"/>
+    <workbookView xWindow="10360" yWindow="3020" windowWidth="28040" windowHeight="17440" xr2:uid="{7AF1CA2D-A986-AE48-8C82-95548A4C8927}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,10 +53,10 @@
     <t>to</t>
   </si>
   <si>
-    <t>machine_1_state_1</t>
-  </si>
-  <si>
-    <t>machine_1_state_2</t>
+    <t>m1_s1</t>
+  </si>
+  <si>
+    <t>m1_s2</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
